--- a/2023/CB-S-month.xlsx
+++ b/2023/CB-S-month.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E097F01B-949A-4C75-B237-ABA0178E6C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A63DFA-2012-423E-88C5-7C31B64DDC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="收益weekly" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
   <si>
     <t>收入</t>
   </si>
@@ -399,37 +399,7 @@
     <t>买入60张大丰转债，113.44</t>
   </si>
   <si>
-    <t>这次转股价下修，若下修到底，特发转2转股价值可从52.068元提高到100元附近，具体下修到多少要等12月13日召开股东大会确定。受下修利好刺激，下周一特发转2可能冲击115元。</t>
-  </si>
-  <si>
     <t>债价格偏高了，低于100的3支。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>最近岭南转债、吉视转债、特发转2接踵宣布下修转股价，似乎有某种内在联系，可能是2021年报快要编制了，赶紧下修转股价降低负债率，让报表好看点？如果这个理由成立，可能近期还有转债加入下修阵营。下一个下修的是谁呢？个人觉得</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>长久转债、久其转债、永东转债、众信转债、湖广转债、翔鹭转债、贵广转债</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机会较大。</t>
-    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -456,7 +426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,14 +551,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF333333"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color rgb="FF333333"/>
       <name val="Microsoft YaHei UI"/>
@@ -937,7 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -947,10 +909,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -999,7 +961,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1012,10 +974,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1047,17 +1009,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1066,7 +1028,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1074,7 +1036,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1083,10 +1045,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1102,10 +1060,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1138,14 +1092,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1171,16 +1125,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1206,11 +1160,11 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1236,7 +1190,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1245,35 +1199,26 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1303,7 +1248,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1311,11 +1256,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1380,10 +1325,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1427,7 +1368,7 @@
 </file>
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1435,7 +1376,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2693,99 +2634,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>389705</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104581</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="3438525"/>
-          <a:ext cx="6561905" cy="1552381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>59003</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>147280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8288603" y="266699"/>
-          <a:ext cx="2007922" cy="5671781"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -3688,7 +3536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F1CA-30C4-4F8B-806E-18ED2E09BE84}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -3759,7 +3607,7 @@
       <c r="A6" s="50">
         <v>44448</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="79">
         <v>2086.1</v>
       </c>
       <c r="C6" s="51">
@@ -3770,10 +3618,10 @@
       <c r="A7" s="50">
         <v>44457</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="80">
         <v>1592.6</v>
       </c>
-      <c r="C7" s="83">
+      <c r="C7" s="81">
         <v>6.7599999999999993E-2</v>
       </c>
     </row>
@@ -3792,7 +3640,7 @@
       <c r="A9" s="50">
         <v>44498</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="79">
         <v>2017.3</v>
       </c>
       <c r="C9" s="51">
@@ -3803,7 +3651,7 @@
       <c r="A10" s="50">
         <v>44515</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="79">
         <v>3211.7</v>
       </c>
       <c r="C10" s="51">
@@ -3814,7 +3662,7 @@
       <c r="A11" s="50">
         <v>44520</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="79">
         <v>3310.1</v>
       </c>
       <c r="C11" s="51">
@@ -3825,19 +3673,19 @@
       <c r="A12" s="50">
         <v>44527</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="79">
         <v>3906</v>
       </c>
       <c r="C12" s="51">
         <v>0.1419</v>
       </c>
-      <c r="D12" s="114"/>
+      <c r="D12" s="110"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="50">
         <v>44540</v>
       </c>
-      <c r="B13" s="81">
+      <c r="B13" s="79">
         <v>4096.3</v>
       </c>
       <c r="C13" s="51">
@@ -3848,7 +3696,7 @@
       <c r="A14" s="50">
         <v>44548</v>
       </c>
-      <c r="B14" s="81">
+      <c r="B14" s="79">
         <v>4648.7</v>
       </c>
       <c r="C14" s="51">
@@ -3859,7 +3707,7 @@
       <c r="A15" s="50">
         <v>44555</v>
       </c>
-      <c r="B15" s="81">
+      <c r="B15" s="79">
         <v>5331.1</v>
       </c>
       <c r="C15" s="51">
@@ -3870,7 +3718,7 @@
       <c r="A16" s="50">
         <v>44561</v>
       </c>
-      <c r="B16" s="81">
+      <c r="B16" s="79">
         <v>5630.3</v>
       </c>
       <c r="C16" s="51">
@@ -3891,8 +3739,8 @@
   <dimension ref="A1:W78"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3918,47 +3766,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131"/>
-      <c r="B1" s="137" t="s">
+      <c r="A1" s="126"/>
+      <c r="B1" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="141" t="s">
+      <c r="D1" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="141" t="s">
+      <c r="E1" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="136" t="s">
+      <c r="F1" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="135" t="s">
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="133" t="s">
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="129" t="s">
+      <c r="S1" s="124" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
       <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
@@ -3992,24 +3840,24 @@
       <c r="P2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="134"/>
+      <c r="Q2" s="129"/>
       <c r="R2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="130"/>
+      <c r="S2" s="125"/>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="11">
         <v>1</v>
       </c>
       <c r="C3" s="43">
         <v>44385</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="53">
         <v>128117</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="53" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="24">
@@ -4019,11 +3867,11 @@
         <v>101.247</v>
       </c>
       <c r="H3" s="24">
-        <f>F3*G3</f>
+        <f t="shared" ref="H3:H10" si="0">F3*G3</f>
         <v>1012.47</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J3" s="21">
         <v>111.051</v>
@@ -4035,36 +3883,36 @@
         <v>10</v>
       </c>
       <c r="M3" s="20">
-        <f>J3*L3</f>
+        <f t="shared" ref="M3:M39" si="1">J3*L3</f>
         <v>1110.51</v>
       </c>
       <c r="N3" s="44">
-        <f>(J3-K3)/K3</f>
+        <f t="shared" ref="N3:N39" si="2">(J3-K3)/K3</f>
         <v>9.6615876840431797E-2</v>
       </c>
       <c r="O3" s="20">
-        <f>(J3-K3)*L3</f>
+        <f t="shared" ref="O3:O23" si="3">(J3-K3)*L3</f>
         <v>97.84000000000006</v>
       </c>
       <c r="P3" s="44">
-        <f>M3/$M$59</f>
+        <f t="shared" ref="P3:P39" si="4">M3/$M$59</f>
         <v>3.2408661220620888E-2</v>
       </c>
-      <c r="Q3" s="126"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="70"/>
+      <c r="Q3" s="121"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="104">
+      <c r="B4" s="11">
         <v>2</v>
       </c>
       <c r="C4" s="43">
         <v>44385</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="53">
         <v>113584</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="53" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="25">
@@ -4074,11 +3922,11 @@
         <v>98.03</v>
       </c>
       <c r="H4" s="24">
-        <f>F4*G4</f>
+        <f t="shared" si="0"/>
         <v>980.3</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J4" s="21">
         <v>108.16</v>
@@ -4090,19 +3938,19 @@
         <v>10</v>
       </c>
       <c r="M4" s="20">
-        <f>J4*L4</f>
+        <f t="shared" si="1"/>
         <v>1081.5999999999999</v>
       </c>
       <c r="N4" s="44">
-        <f>(J4-K4)/K4</f>
+        <f t="shared" si="2"/>
         <v>0.10311065782763895</v>
       </c>
       <c r="O4" s="20">
-        <f>(J4-K4)*L4</f>
+        <f t="shared" si="3"/>
         <v>101.1</v>
       </c>
       <c r="P4" s="44">
-        <f>M4/$M$59</f>
+        <f t="shared" si="4"/>
         <v>3.1564963824029998E-2</v>
       </c>
       <c r="Q4" s="14"/>
@@ -4112,30 +3960,30 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="104">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
       <c r="C5" s="43">
         <v>44385</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="53">
         <v>113036</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="53" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="25">
         <v>10</v>
       </c>
-      <c r="G5" s="108">
+      <c r="G5" s="105">
         <v>100.92</v>
       </c>
       <c r="H5" s="24">
-        <f>F5*G5</f>
+        <f t="shared" si="0"/>
         <v>1009.2</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J5" s="21">
         <v>114.06</v>
@@ -4147,35 +3995,35 @@
         <v>20</v>
       </c>
       <c r="M5" s="20">
-        <f>J5*L5</f>
+        <f t="shared" si="1"/>
         <v>2281.1999999999998</v>
       </c>
       <c r="N5" s="44">
-        <f>(J5-K5)/K5</f>
+        <f t="shared" si="2"/>
         <v>9.2267177400047931E-2</v>
       </c>
       <c r="O5" s="20">
-        <f>(J5-K5)*L5</f>
+        <f t="shared" si="3"/>
         <v>192.7000000000001</v>
       </c>
       <c r="P5" s="44">
-        <f>M5/$M$59</f>
+        <f t="shared" si="4"/>
         <v>6.6573590491288123E-2</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="S5" s="45"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="104">
+      <c r="B6" s="11">
         <v>4</v>
       </c>
       <c r="C6" s="43">
         <v>44385</v>
       </c>
-      <c r="D6" s="105">
+      <c r="D6" s="102">
         <v>128132</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="53" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="25">
@@ -4185,11 +4033,11 @@
         <v>95.751000000000005</v>
       </c>
       <c r="H6" s="24">
-        <f>F6*G6</f>
+        <f t="shared" si="0"/>
         <v>957.51</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J6" s="21">
         <v>109</v>
@@ -4201,33 +4049,33 @@
         <v>10</v>
       </c>
       <c r="M6" s="20">
-        <f>J6*L6</f>
+        <f t="shared" si="1"/>
         <v>1090</v>
       </c>
       <c r="N6" s="44">
-        <f>(J6-K6)/K6</f>
+        <f t="shared" si="2"/>
         <v>0.13813158471771203</v>
       </c>
       <c r="O6" s="20">
-        <f>(J6-K6)*L6</f>
+        <f t="shared" si="3"/>
         <v>132.29</v>
       </c>
       <c r="P6" s="44">
-        <f>M6/$M$59</f>
+        <f t="shared" si="4"/>
         <v>3.1810105924734378E-2</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="S6" s="45"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="104">
+      <c r="B7" s="11">
         <v>5</v>
       </c>
       <c r="C7" s="43"/>
-      <c r="D7" s="54">
+      <c r="D7" s="53">
         <v>128044</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="25">
@@ -4237,11 +4085,11 @@
         <v>0</v>
       </c>
       <c r="H7" s="24">
-        <f>F7*G7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J7" s="21">
         <v>121.03</v>
@@ -4253,19 +4101,19 @@
         <v>20</v>
       </c>
       <c r="M7" s="20">
-        <f>J7*L7</f>
+        <f t="shared" si="1"/>
         <v>2420.6</v>
       </c>
       <c r="N7" s="44">
-        <f>(J7-K7)/K7</f>
+        <f t="shared" si="2"/>
         <v>0.25627984222545147</v>
       </c>
       <c r="O7" s="20">
-        <f>(J7-K7)*L7</f>
+        <f t="shared" si="3"/>
         <v>493.79999999999995</v>
       </c>
       <c r="P7" s="44">
-        <f>M7/$M$59</f>
+        <f t="shared" si="4"/>
         <v>7.0641782019644064E-2</v>
       </c>
       <c r="Q7" s="14"/>
@@ -4275,14 +4123,14 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="104">
+      <c r="B8" s="11">
         <v>6</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="54">
+      <c r="D8" s="53">
         <v>127039</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="53" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="25">
@@ -4292,11 +4140,11 @@
         <v>0</v>
       </c>
       <c r="H8" s="24">
-        <f>F8*G8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J8" s="21">
         <v>122.80200000000001</v>
@@ -4308,33 +4156,33 @@
         <v>10</v>
       </c>
       <c r="M8" s="20">
-        <f>J8*L8</f>
+        <f t="shared" si="1"/>
         <v>1228.02</v>
       </c>
       <c r="N8" s="44">
-        <f>(J8-K8)/K8</f>
+        <f t="shared" si="2"/>
         <v>0.22802000000000006</v>
       </c>
       <c r="O8" s="20">
-        <f>(J8-K8)*L8</f>
+        <f t="shared" si="3"/>
         <v>228.02000000000007</v>
       </c>
       <c r="P8" s="44">
-        <f>M8/$M$59</f>
+        <f t="shared" si="4"/>
         <v>3.5838024107974591E-2</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="S8" s="45"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="104">
+      <c r="B9" s="11">
         <v>7</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="54">
+      <c r="D9" s="53">
         <v>127003</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="53" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="25">
@@ -4344,11 +4192,11 @@
         <v>0</v>
       </c>
       <c r="H9" s="24">
-        <f>F9*G9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J9" s="21">
         <v>120.389</v>
@@ -4360,33 +4208,33 @@
         <v>10</v>
       </c>
       <c r="M9" s="20">
-        <f>J9*L9</f>
+        <f t="shared" si="1"/>
         <v>1203.8899999999999</v>
       </c>
       <c r="N9" s="44">
-        <f>(J9-K9)/K9</f>
+        <f t="shared" si="2"/>
         <v>0.17882811429019047</v>
       </c>
       <c r="O9" s="20">
-        <f>(J9-K9)*L9</f>
+        <f t="shared" si="3"/>
         <v>182.62999999999991</v>
       </c>
       <c r="P9" s="44">
-        <f>M9/$M$59</f>
+        <f t="shared" si="4"/>
         <v>3.5133824240117857E-2</v>
       </c>
       <c r="Q9" s="14"/>
       <c r="S9" s="45"/>
     </row>
     <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="104">
+      <c r="B10" s="11">
         <v>8</v>
       </c>
       <c r="C10" s="43"/>
-      <c r="D10" s="54">
+      <c r="D10" s="53">
         <v>113569</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="53" t="s">
         <v>50</v>
       </c>
       <c r="F10" s="25">
@@ -4396,11 +4244,11 @@
         <v>0</v>
       </c>
       <c r="H10" s="24">
-        <f>F10*G10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J10" s="21">
         <v>106.82</v>
@@ -4412,33 +4260,33 @@
         <v>10</v>
       </c>
       <c r="M10" s="20">
-        <f>J10*L10</f>
+        <f t="shared" si="1"/>
         <v>1068.1999999999998</v>
       </c>
       <c r="N10" s="44">
-        <f>(J10-K10)/K10</f>
+        <f t="shared" si="2"/>
         <v>7.2489959839357423E-2</v>
       </c>
       <c r="O10" s="20">
-        <f>(J10-K10)*L10</f>
+        <f t="shared" si="3"/>
         <v>72.199999999999989</v>
       </c>
       <c r="P10" s="44">
-        <f>M10/$M$59</f>
+        <f t="shared" si="4"/>
         <v>3.1173903806239682E-2</v>
       </c>
       <c r="Q10" s="14"/>
       <c r="S10" s="45"/>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="104">
+      <c r="B11" s="11">
         <v>9</v>
       </c>
       <c r="C11" s="43"/>
-      <c r="D11" s="54">
+      <c r="D11" s="53">
         <v>110064</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="53" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="25">
@@ -4447,7 +4295,7 @@
       <c r="G11" s="37"/>
       <c r="H11" s="24"/>
       <c r="I11" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J11" s="21">
         <v>115.13</v>
@@ -4459,34 +4307,34 @@
         <v>10</v>
       </c>
       <c r="M11" s="20">
-        <f>J11*L11</f>
+        <f t="shared" si="1"/>
         <v>1151.3</v>
       </c>
       <c r="N11" s="44">
-        <f>(J11-K11)/K11</f>
+        <f t="shared" si="2"/>
         <v>0.18678486753942883</v>
       </c>
       <c r="O11" s="20">
-        <f>(J11-K11)*L11</f>
+        <f t="shared" si="3"/>
         <v>181.1999999999999</v>
       </c>
       <c r="P11" s="44">
-        <f>M11/$M$59</f>
+        <f t="shared" si="4"/>
         <v>3.3599059588207969E-2</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="S11" s="45"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="111"/>
-      <c r="B12" s="104">
+      <c r="A12" s="108"/>
+      <c r="B12" s="11">
         <v>10</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="54">
+      <c r="D12" s="53">
         <v>123023</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="53" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="25">
@@ -4500,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J12" s="21">
         <v>115.31</v>
@@ -4512,82 +4360,82 @@
         <v>10</v>
       </c>
       <c r="M12" s="20">
-        <f>J12*L12</f>
+        <f t="shared" si="1"/>
         <v>1153.0999999999999</v>
       </c>
       <c r="N12" s="44">
-        <f>(J12-K12)/K12</f>
+        <f t="shared" si="2"/>
         <v>0.17506190704262672</v>
       </c>
       <c r="O12" s="20">
-        <f>(J12-K12)*L12</f>
+        <f t="shared" si="3"/>
         <v>171.79000000000002</v>
       </c>
       <c r="P12" s="44">
-        <f>M12/$M$59</f>
+        <f t="shared" si="4"/>
         <v>3.3651590038358901E-2</v>
       </c>
       <c r="Q12" s="14"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="84"/>
-    </row>
-    <row r="13" spans="1:23" s="93" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="91"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="82"/>
+    </row>
+    <row r="13" spans="1:23" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="B13" s="104">
+      <c r="B13" s="11">
         <v>11</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="95">
+      <c r="C13" s="100"/>
+      <c r="D13" s="93">
         <v>113574</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="96">
+      <c r="F13" s="94">
         <v>10</v>
       </c>
-      <c r="G13" s="97"/>
-      <c r="H13" s="98"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="96"/>
       <c r="I13" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96">
-        <v>0</v>
-      </c>
-      <c r="M13" s="98">
-        <f>J13*L13</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="99" t="e">
-        <f>(J13-K13)/K13</f>
+        <v>102</v>
+      </c>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94">
+        <v>0</v>
+      </c>
+      <c r="M13" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="97" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O13" s="98">
-        <f>(J13-K13)*L13</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="99">
-        <f>M13/$M$59</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="100"/>
+      <c r="O13" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="98"/>
       <c r="R13" s="7"/>
       <c r="S13" s="45"/>
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="112"/>
-      <c r="B14" s="104">
+      <c r="A14" s="109"/>
+      <c r="B14" s="11">
         <v>12</v>
       </c>
       <c r="C14" s="43"/>
-      <c r="D14" s="54">
+      <c r="D14" s="53">
         <v>113519</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="53" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="25">
@@ -4597,11 +4445,11 @@
         <v>0</v>
       </c>
       <c r="H14" s="24">
-        <f>F14*G14</f>
+        <f t="shared" ref="H14:H19" si="5">F14*G14</f>
         <v>0</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J14" s="21">
         <v>111.65</v>
@@ -4613,34 +4461,34 @@
         <v>10</v>
       </c>
       <c r="M14" s="20">
-        <f>J14*L14</f>
+        <f t="shared" si="1"/>
         <v>1116.5</v>
       </c>
       <c r="N14" s="44">
-        <f>(J14-K14)/K14</f>
+        <f t="shared" si="2"/>
         <v>0.13109107486576854</v>
       </c>
       <c r="O14" s="20">
-        <f>(J14-K14)*L14</f>
+        <f t="shared" si="3"/>
         <v>129.40000000000012</v>
       </c>
       <c r="P14" s="44">
-        <f>M14/$M$59</f>
+        <f t="shared" si="4"/>
         <v>3.2583470885289845E-2</v>
       </c>
       <c r="Q14" s="14"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="72"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="70"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="104">
+      <c r="B15" s="11">
         <v>13</v>
       </c>
       <c r="C15" s="43"/>
-      <c r="D15" s="54">
+      <c r="D15" s="53">
         <v>113563</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="53" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="25">
@@ -4650,11 +4498,11 @@
         <v>0</v>
       </c>
       <c r="H15" s="24">
-        <f>F15*G15</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J15" s="21">
         <v>116.53</v>
@@ -4666,36 +4514,36 @@
         <v>20</v>
       </c>
       <c r="M15" s="20">
-        <f>J15*L15</f>
+        <f t="shared" si="1"/>
         <v>2330.6</v>
       </c>
       <c r="N15" s="44">
-        <f>(J15-K15)/K15</f>
+        <f t="shared" si="2"/>
         <v>6.6977979215309236E-2</v>
       </c>
       <c r="O15" s="20">
-        <f>(J15-K15)*L15</f>
+        <f t="shared" si="3"/>
         <v>146.29999999999995</v>
       </c>
       <c r="P15" s="44">
-        <f>M15/$M$59</f>
+        <f t="shared" si="4"/>
         <v>6.8015259512097179E-2</v>
       </c>
       <c r="Q15" s="14"/>
-      <c r="R15" s="116"/>
+      <c r="R15" s="111"/>
       <c r="S15" s="45"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="104">
+      <c r="B16" s="11">
         <v>14</v>
       </c>
       <c r="C16" s="43">
         <v>44389</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="53">
         <v>128100</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="53" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="25">
@@ -4705,11 +4553,11 @@
         <v>0</v>
       </c>
       <c r="H16" s="24">
-        <f>F16*G16</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J16" s="21">
         <v>108.44</v>
@@ -4721,35 +4569,35 @@
         <v>20</v>
       </c>
       <c r="M16" s="20">
-        <f>J16*L16</f>
+        <f t="shared" si="1"/>
         <v>2168.8000000000002</v>
       </c>
       <c r="N16" s="44">
-        <f>(J16-K16)/K16</f>
+        <f t="shared" si="2"/>
         <v>0.17347877371251708</v>
       </c>
       <c r="O16" s="20">
-        <f>(J16-K16)*L16</f>
+        <f t="shared" si="3"/>
         <v>320.61999999999983</v>
       </c>
       <c r="P16" s="44">
-        <f>M16/$M$59</f>
+        <f t="shared" si="4"/>
         <v>6.3293355715196259E-2</v>
       </c>
       <c r="Q16" s="14"/>
       <c r="S16" s="45"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="104">
+      <c r="B17" s="11">
         <v>15</v>
       </c>
       <c r="C17" s="43">
         <v>44397</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="53">
         <v>113589</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="53" t="s">
         <v>55</v>
       </c>
       <c r="F17" s="25">
@@ -4759,11 +4607,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="24">
-        <f>F17*G17</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J17" s="21">
         <v>104.47</v>
@@ -4775,35 +4623,35 @@
         <v>10</v>
       </c>
       <c r="M17" s="20">
-        <f>J17*L17</f>
+        <f t="shared" si="1"/>
         <v>1044.7</v>
       </c>
       <c r="N17" s="44">
-        <f>(J17-K17)/K17</f>
+        <f t="shared" si="2"/>
         <v>0.10819985149039996</v>
       </c>
       <c r="O17" s="20">
-        <f>(J17-K17)*L17</f>
+        <f t="shared" si="3"/>
         <v>102.00000000000003</v>
       </c>
       <c r="P17" s="44">
-        <f>M17/$M$59</f>
+        <f t="shared" si="4"/>
         <v>3.0488089595935783E-2</v>
       </c>
       <c r="Q17" s="14"/>
       <c r="S17" s="45"/>
     </row>
     <row r="18" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="104">
+      <c r="B18" s="11">
         <v>16</v>
       </c>
       <c r="C18" s="52">
         <v>44403</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="107" t="s">
+      <c r="E18" s="104" t="s">
         <v>83</v>
       </c>
       <c r="F18" s="25">
@@ -4813,11 +4661,11 @@
         <v>0</v>
       </c>
       <c r="H18" s="24">
-        <f>F18*G18</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J18" s="21">
         <v>112.79900000000001</v>
@@ -4829,35 +4677,35 @@
         <v>10</v>
       </c>
       <c r="M18" s="20">
-        <f>J18*L18</f>
+        <f t="shared" si="1"/>
         <v>1127.99</v>
       </c>
       <c r="N18" s="44">
-        <f>(J18-K18)/K18</f>
+        <f t="shared" si="2"/>
         <v>0.15242133224356366</v>
       </c>
       <c r="O18" s="20">
-        <f>(J18-K18)*L18</f>
+        <f t="shared" si="3"/>
         <v>149.19000000000011</v>
       </c>
       <c r="P18" s="44">
-        <f>M18/$M$59</f>
+        <f t="shared" si="4"/>
         <v>3.2918790258753328E-2</v>
       </c>
       <c r="Q18" s="14"/>
       <c r="S18" s="45"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="104">
+      <c r="B19" s="11">
         <v>17</v>
       </c>
       <c r="C19" s="52">
         <v>44418</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="53">
         <v>113595</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="53" t="s">
         <v>60</v>
       </c>
       <c r="F19" s="25">
@@ -4867,11 +4715,11 @@
         <v>0</v>
       </c>
       <c r="H19" s="24">
-        <f>F19*G19</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J19" s="21">
         <v>107.21</v>
@@ -4883,35 +4731,35 @@
         <v>10</v>
       </c>
       <c r="M19" s="20">
-        <f>J19*L19</f>
+        <f t="shared" si="1"/>
         <v>1072.0999999999999</v>
       </c>
       <c r="N19" s="44">
-        <f>(J19-K19)/K19</f>
+        <f t="shared" si="2"/>
         <v>0.24474631371183095</v>
       </c>
       <c r="O19" s="20">
-        <f>(J19-K19)*L19</f>
+        <f t="shared" si="3"/>
         <v>210.79999999999998</v>
       </c>
       <c r="P19" s="44">
-        <f>M19/$M$59</f>
+        <f t="shared" si="4"/>
         <v>3.1287719781566713E-2</v>
       </c>
       <c r="Q19" s="14"/>
       <c r="S19" s="45"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="104">
+      <c r="B20" s="11">
         <v>18</v>
       </c>
       <c r="C20" s="52">
         <v>44425</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="53">
         <v>113596</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="53" t="s">
         <v>63</v>
       </c>
       <c r="F20" s="25">
@@ -4920,7 +4768,7 @@
       <c r="G20" s="37"/>
       <c r="H20" s="24"/>
       <c r="I20" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J20" s="21">
         <v>98.61</v>
@@ -4932,84 +4780,84 @@
         <v>10</v>
       </c>
       <c r="M20" s="20">
-        <f>J20*L20</f>
+        <f t="shared" si="1"/>
         <v>986.1</v>
       </c>
       <c r="N20" s="44">
-        <f>(J20-K20)/K20</f>
+        <f t="shared" si="2"/>
         <v>6.6745997403721349E-2</v>
       </c>
       <c r="O20" s="20">
-        <f>(J20-K20)*L20</f>
+        <f t="shared" si="3"/>
         <v>61.700000000000017</v>
       </c>
       <c r="P20" s="44">
-        <f>M20/$M$59</f>
+        <f t="shared" si="4"/>
         <v>2.8777931607688594E-2</v>
       </c>
       <c r="Q20" s="14"/>
       <c r="S20" s="45"/>
     </row>
-    <row r="21" spans="1:20" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="68" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="104">
+      <c r="B21" s="11">
         <v>19</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="61">
         <v>44427</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="62">
         <v>110081</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="63">
         <v>10</v>
       </c>
-      <c r="G21" s="66">
+      <c r="G21" s="64">
         <v>100</v>
       </c>
-      <c r="H21" s="67"/>
-      <c r="I21" s="65" t="s">
+      <c r="H21" s="65"/>
+      <c r="I21" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="67">
-        <f>J21*L21</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="68" t="e">
-        <f>(J21-K21)/K21</f>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="66" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O21" s="67">
-        <f>(J21-K21)*L21</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="68">
-        <f>M21/$M$59</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="72"/>
+      <c r="O21" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="70"/>
       <c r="S21" s="45"/>
       <c r="T21" s="7"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="104">
+      <c r="B22" s="11">
         <v>20</v>
       </c>
       <c r="C22" s="52">
         <v>44434</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="53" t="s">
         <v>65</v>
       </c>
       <c r="F22" s="25">
@@ -5023,7 +4871,7 @@
         <v>1027</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J22" s="21">
         <v>110.42</v>
@@ -5035,37 +4883,37 @@
         <v>10</v>
       </c>
       <c r="M22" s="20">
-        <f>J22*L22</f>
+        <f t="shared" si="1"/>
         <v>1104.2</v>
       </c>
       <c r="N22" s="44">
-        <f>(J22-K22)/K22</f>
+        <f t="shared" si="2"/>
         <v>7.4751800661864973E-2</v>
       </c>
       <c r="O22" s="20">
-        <f>(J22-K22)*L22</f>
+        <f t="shared" si="3"/>
         <v>76.800000000000068</v>
       </c>
       <c r="P22" s="44">
-        <f>M22/$M$59</f>
+        <f t="shared" si="4"/>
         <v>3.2224512809258435E-2</v>
       </c>
       <c r="Q22" s="14"/>
-      <c r="R22" s="70"/>
+      <c r="R22" s="68"/>
       <c r="S22" s="45"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="104">
+      <c r="B23" s="11">
         <v>21</v>
       </c>
       <c r="C23" s="52">
         <v>44438</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="53">
         <v>123056</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="53" t="s">
         <v>77</v>
       </c>
       <c r="F23" s="25">
@@ -5091,83 +4939,83 @@
         <v>10</v>
       </c>
       <c r="M23" s="20">
-        <f>J23*L23</f>
+        <f t="shared" si="1"/>
         <v>1092.83</v>
       </c>
       <c r="N23" s="44">
-        <f>(J23-K23)/K23</f>
+        <f t="shared" si="2"/>
         <v>4.5700288018984334E-2</v>
       </c>
       <c r="O23" s="20">
-        <f>(J23-K23)*L23</f>
+        <f t="shared" si="3"/>
         <v>47.759999999999962</v>
       </c>
       <c r="P23" s="44">
-        <f>M23/$M$59</f>
+        <f t="shared" si="4"/>
         <v>3.1892695465805011E-2</v>
       </c>
       <c r="Q23" s="14"/>
       <c r="S23" s="45"/>
     </row>
-    <row r="24" spans="1:20" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="84"/>
-      <c r="B24" s="104">
+    <row r="24" spans="1:20" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="82"/>
+      <c r="B24" s="11">
         <v>22</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="74">
+      <c r="C24" s="71"/>
+      <c r="D24" s="72">
         <v>110081</v>
       </c>
-      <c r="E24" s="74" t="s">
+      <c r="E24" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="75">
+      <c r="F24" s="73">
         <v>-10</v>
       </c>
-      <c r="G24" s="76">
+      <c r="G24" s="74">
         <v>156.43</v>
       </c>
-      <c r="H24" s="77">
-        <v>0</v>
-      </c>
-      <c r="I24" s="75" t="s">
+      <c r="H24" s="75">
+        <v>0</v>
+      </c>
+      <c r="I24" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="77">
-        <f>J24*L24</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="78" t="e">
-        <f>(J24-K24)/K24</f>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="76" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O24" s="77">
+      <c r="O24" s="75">
         <v>563.20000000000005</v>
       </c>
       <c r="P24" s="44">
-        <f>M24/$M$59</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="92"/>
-      <c r="T24" s="84"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="82"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="B25" s="104">
+      <c r="B25" s="11">
         <v>23</v>
       </c>
       <c r="C25" s="52">
         <v>44448</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="53">
         <v>113017</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="53" t="s">
         <v>48</v>
       </c>
       <c r="F25" s="25">
@@ -5177,7 +5025,7 @@
         <v>101.91</v>
       </c>
       <c r="H25" s="24">
-        <f>F25*G25</f>
+        <f t="shared" ref="H25:H39" si="6">F25*G25</f>
         <v>1019.0999999999999</v>
       </c>
       <c r="I25" s="25" t="s">
@@ -5193,11 +5041,11 @@
         <v>10</v>
       </c>
       <c r="M25" s="20">
-        <f>J25*L25</f>
+        <f t="shared" si="1"/>
         <v>1161</v>
       </c>
       <c r="N25" s="44">
-        <f>(J25-K25)/K25</f>
+        <f t="shared" si="2"/>
         <v>0.1390169724320611</v>
       </c>
       <c r="O25" s="20">
@@ -5205,7 +5053,7 @@
         <v>141.69999999999987</v>
       </c>
       <c r="P25" s="44">
-        <f>M25/$M$59</f>
+        <f t="shared" si="4"/>
         <v>3.3882140347354685E-2</v>
       </c>
       <c r="Q25" s="14" t="s">
@@ -5213,68 +5061,68 @@
       </c>
       <c r="S25" s="45"/>
     </row>
-    <row r="26" spans="1:20" s="84" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="B26" s="104">
+      <c r="B26" s="11">
         <v>24</v>
       </c>
-      <c r="C26" s="85">
+      <c r="C26" s="83">
         <v>44453</v>
       </c>
-      <c r="D26" s="86">
+      <c r="D26" s="84">
         <v>113576</v>
       </c>
-      <c r="E26" s="106" t="s">
+      <c r="E26" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="87">
+      <c r="F26" s="85">
         <v>10</v>
       </c>
-      <c r="G26" s="88">
+      <c r="G26" s="86">
         <v>96.6</v>
       </c>
-      <c r="H26" s="89">
-        <f>F26*G26</f>
+      <c r="H26" s="87">
+        <f t="shared" si="6"/>
         <v>966</v>
       </c>
-      <c r="I26" s="87" t="s">
+      <c r="I26" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="89">
-        <f>J26*L26</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="90" t="e">
-        <f>(J26-K26)/K26</f>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="88" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O26" s="89">
+      <c r="O26" s="87">
         <v>438.6</v>
       </c>
-      <c r="P26" s="90">
-        <f>M26/$M$59</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="91"/>
+      <c r="P26" s="88">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="89"/>
       <c r="R26" s="7"/>
       <c r="S26" s="45"/>
       <c r="T26" s="7"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="B27" s="104">
+      <c r="B27" s="11">
         <v>25</v>
       </c>
       <c r="C27" s="52">
         <v>44461</v>
       </c>
-      <c r="D27" s="54">
+      <c r="D27" s="53">
         <v>113578</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="53" t="s">
         <v>82</v>
       </c>
       <c r="F27" s="25">
@@ -5284,7 +5132,7 @@
         <v>98.3</v>
       </c>
       <c r="H27" s="24">
-        <f>F27*G27</f>
+        <f t="shared" si="6"/>
         <v>983</v>
       </c>
       <c r="I27" s="25" t="s">
@@ -5300,11 +5148,11 @@
         <v>10</v>
       </c>
       <c r="M27" s="20">
-        <f>J27*L27</f>
+        <f t="shared" si="1"/>
         <v>1071.7</v>
       </c>
       <c r="N27" s="44">
-        <f>(J27-K27)/K27</f>
+        <f t="shared" si="2"/>
         <v>9.0012205044751922E-2</v>
       </c>
       <c r="O27" s="20">
@@ -5312,23 +5160,23 @@
         <v>88.500000000000085</v>
       </c>
       <c r="P27" s="44">
-        <f>M27/$M$59</f>
+        <f t="shared" si="4"/>
         <v>3.1276046348199846E-2</v>
       </c>
       <c r="Q27" s="14"/>
       <c r="S27" s="45"/>
     </row>
-    <row r="28" spans="1:20" s="116" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="115">
+    <row r="28" spans="1:20" s="111" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11">
         <v>26</v>
       </c>
       <c r="C28" s="52">
         <v>44466</v>
       </c>
-      <c r="D28" s="54">
+      <c r="D28" s="53">
         <v>127016</v>
       </c>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="53" t="s">
         <v>76</v>
       </c>
       <c r="F28" s="25">
@@ -5338,7 +5186,7 @@
         <v>102.20099999999999</v>
       </c>
       <c r="H28" s="24">
-        <f>F28*G28</f>
+        <f t="shared" si="6"/>
         <v>1022.01</v>
       </c>
       <c r="I28" s="25" t="s">
@@ -5354,11 +5202,11 @@
         <v>10</v>
       </c>
       <c r="M28" s="20">
-        <f>J28*L28</f>
+        <f t="shared" si="1"/>
         <v>1120</v>
       </c>
       <c r="N28" s="44">
-        <f>(J28-K28)/K28</f>
+        <f t="shared" si="2"/>
         <v>9.5558098815427858E-2</v>
       </c>
       <c r="O28" s="20">
@@ -5366,74 +5214,74 @@
         <v>97.690000000000055</v>
       </c>
       <c r="P28" s="44">
-        <f>M28/$M$59</f>
+        <f t="shared" si="4"/>
         <v>3.2685613427250002E-2</v>
       </c>
       <c r="Q28" s="14"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="125"/>
-    </row>
-    <row r="29" spans="1:20" s="93" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="146">
+      <c r="S28" s="120"/>
+    </row>
+    <row r="29" spans="1:20" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="123">
         <v>27</v>
       </c>
-      <c r="C29" s="94">
+      <c r="C29" s="92">
         <v>44482</v>
       </c>
-      <c r="D29" s="95">
+      <c r="D29" s="93">
         <v>127007</v>
       </c>
-      <c r="E29" s="95" t="s">
+      <c r="E29" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="96">
+      <c r="F29" s="94">
         <v>10</v>
       </c>
-      <c r="G29" s="97">
+      <c r="G29" s="95">
         <v>102.511</v>
       </c>
-      <c r="H29" s="98">
-        <f>F29*G29</f>
+      <c r="H29" s="96">
+        <f t="shared" si="6"/>
         <v>1025.1099999999999</v>
       </c>
-      <c r="I29" s="96" t="s">
+      <c r="I29" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96">
-        <v>0</v>
-      </c>
-      <c r="M29" s="98">
-        <f>J29*L29</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="99" t="e">
-        <f>(J29-K29)/K29</f>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94">
+        <v>0</v>
+      </c>
+      <c r="M29" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="97" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O29" s="98">
-        <v>0</v>
-      </c>
-      <c r="P29" s="99">
-        <f>M29/$M$59</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="100"/>
-      <c r="S29" s="101"/>
+      <c r="O29" s="96">
+        <v>0</v>
+      </c>
+      <c r="P29" s="97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="98"/>
+      <c r="S29" s="99"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
-      <c r="B30" s="104">
+      <c r="B30" s="11">
         <v>28</v>
       </c>
       <c r="C30" s="52">
         <v>44487</v>
       </c>
-      <c r="D30" s="54">
+      <c r="D30" s="53">
         <v>128062</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="53" t="s">
         <v>85</v>
       </c>
       <c r="F30" s="25">
@@ -5443,7 +5291,7 @@
         <v>89.132999999999996</v>
       </c>
       <c r="H30" s="24">
-        <f>F30*G30</f>
+        <f t="shared" si="6"/>
         <v>891.32999999999993</v>
       </c>
       <c r="I30" s="25" t="s">
@@ -5459,11 +5307,11 @@
         <v>20</v>
       </c>
       <c r="M30" s="20">
-        <f>J30*L30</f>
+        <f t="shared" si="1"/>
         <v>1914.4</v>
       </c>
       <c r="N30" s="44">
-        <f>(J30-K30)/K30</f>
+        <f t="shared" si="2"/>
         <v>4.0434782608695638E-2</v>
       </c>
       <c r="O30" s="20">
@@ -5471,75 +5319,75 @@
         <v>74.399999999999977</v>
       </c>
       <c r="P30" s="44">
-        <f>M30/$M$59</f>
+        <f t="shared" si="4"/>
         <v>5.5869052093863752E-2</v>
       </c>
       <c r="Q30" s="14"/>
-      <c r="R30" s="84"/>
+      <c r="R30" s="82"/>
       <c r="S30" s="40"/>
       <c r="T30" s="8"/>
     </row>
-    <row r="31" spans="1:20" s="84" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="B31" s="127">
+      <c r="B31" s="11">
         <v>29</v>
       </c>
-      <c r="C31" s="85">
+      <c r="C31" s="83">
         <v>44495</v>
       </c>
-      <c r="D31" s="86">
+      <c r="D31" s="84">
         <v>113576</v>
       </c>
-      <c r="E31" s="106" t="s">
+      <c r="E31" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="87">
+      <c r="F31" s="85">
         <v>-10</v>
       </c>
-      <c r="G31" s="88">
+      <c r="G31" s="86">
         <v>140.5</v>
       </c>
-      <c r="H31" s="89">
-        <f>F31*G31</f>
+      <c r="H31" s="87">
+        <f t="shared" si="6"/>
         <v>-1405</v>
       </c>
-      <c r="I31" s="87" t="s">
+      <c r="I31" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="89">
-        <f>J31*L31</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="90" t="e">
-        <f>(J31-K31)/K31</f>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="88" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O31" s="89">
+      <c r="O31" s="87">
         <f>(J31-K31)*L31</f>
         <v>0</v>
       </c>
-      <c r="P31" s="90">
-        <f>M31/$M$59</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="91"/>
+      <c r="P31" s="88">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="89"/>
       <c r="R31" s="7"/>
       <c r="S31" s="45"/>
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="B32" s="104">
+      <c r="B32" s="11">
         <v>30</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="54">
+      <c r="D32" s="53">
         <v>110072</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="53" t="s">
         <v>86</v>
       </c>
       <c r="F32" s="25">
@@ -5549,7 +5397,7 @@
         <v>99.03</v>
       </c>
       <c r="H32" s="24">
-        <f>F32*G32</f>
+        <f t="shared" si="6"/>
         <v>990.3</v>
       </c>
       <c r="I32" s="25" t="s">
@@ -5565,11 +5413,11 @@
         <v>20</v>
       </c>
       <c r="M32" s="20">
-        <f>J32*L32</f>
+        <f t="shared" si="1"/>
         <v>2046</v>
       </c>
       <c r="N32" s="44">
-        <f>(J32-K32)/K32</f>
+        <f t="shared" si="2"/>
         <v>3.3072456450391224E-2</v>
       </c>
       <c r="O32" s="20">
@@ -5577,7 +5425,7 @@
         <v>65.499999999999829</v>
       </c>
       <c r="P32" s="44">
-        <f>M32/$M$59</f>
+        <f t="shared" si="4"/>
         <v>5.9709611671565625E-2</v>
       </c>
       <c r="Q32" s="14"/>
@@ -5585,107 +5433,107 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
-      <c r="B33" s="117">
+      <c r="B33" s="112">
         <v>31</v>
       </c>
-      <c r="C33" s="120"/>
-      <c r="D33" s="119">
+      <c r="C33" s="115"/>
+      <c r="D33" s="114">
         <v>127047</v>
       </c>
-      <c r="E33" s="119" t="s">
+      <c r="E33" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="120">
+      <c r="F33" s="115">
         <v>10</v>
       </c>
-      <c r="G33" s="121"/>
-      <c r="H33" s="122">
-        <f>F33*G33</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="120" t="s">
+      <c r="G33" s="116"/>
+      <c r="H33" s="117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="J33" s="120"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="122">
-        <f>J33*L33</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="123" t="e">
-        <f>(J33-K33)/K33</f>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="118" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O33" s="122"/>
-      <c r="P33" s="123">
-        <f>M33/$M$59</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="124"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="118">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="119"/>
       <c r="S33" s="45"/>
     </row>
-    <row r="34" spans="1:19" s="93" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="104">
+    <row r="34" spans="1:19" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="11">
         <v>32</v>
       </c>
-      <c r="C34" s="94">
+      <c r="C34" s="92">
         <v>44509</v>
       </c>
-      <c r="D34" s="95">
+      <c r="D34" s="93">
         <v>113574</v>
       </c>
-      <c r="E34" s="95" t="s">
+      <c r="E34" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="96">
+      <c r="F34" s="94">
         <v>-10</v>
       </c>
-      <c r="G34" s="97">
+      <c r="G34" s="95">
         <v>120.8</v>
       </c>
-      <c r="H34" s="98">
-        <f>F34*G34</f>
+      <c r="H34" s="96">
+        <f t="shared" si="6"/>
         <v>-1208</v>
       </c>
-      <c r="I34" s="96" t="s">
+      <c r="I34" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="98">
-        <f>J34*L34</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="99" t="e">
-        <f>(J34-K34)/K34</f>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="97" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O34" s="98">
+      <c r="O34" s="96">
         <v>210.48</v>
       </c>
-      <c r="P34" s="99">
-        <f>M34/$M$59</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="100" t="s">
+      <c r="P34" s="97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="S34" s="101"/>
+      <c r="S34" s="99"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
-      <c r="B35" s="104">
+      <c r="B35" s="11">
         <v>33</v>
       </c>
       <c r="C35" s="52">
         <v>44536</v>
       </c>
-      <c r="D35" s="54">
+      <c r="D35" s="53">
         <v>110072</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="53" t="s">
         <v>86</v>
       </c>
       <c r="F35" s="25">
@@ -5695,7 +5543,7 @@
         <v>98.98</v>
       </c>
       <c r="H35" s="24">
-        <f>F35*G35</f>
+        <f t="shared" si="6"/>
         <v>989.80000000000007</v>
       </c>
       <c r="I35" s="25" t="s">
@@ -5705,11 +5553,11 @@
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
       <c r="M35" s="20">
-        <f>J35*L35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N35" s="44" t="e">
-        <f>(J35-K35)/K35</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O35" s="20">
@@ -5717,71 +5565,71 @@
         <v>0</v>
       </c>
       <c r="P35" s="44">
-        <f>M35/$M$59</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="100" t="s">
-        <v>101</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="98" t="s">
+        <v>100</v>
       </c>
       <c r="S35" s="45"/>
     </row>
-    <row r="36" spans="1:19" s="116" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="117">
+    <row r="36" spans="1:19" s="111" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="112">
         <v>34</v>
       </c>
-      <c r="C36" s="118">
+      <c r="C36" s="113">
         <v>44539</v>
       </c>
-      <c r="D36" s="119">
+      <c r="D36" s="114">
         <v>127047</v>
       </c>
-      <c r="E36" s="119" t="s">
+      <c r="E36" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="F36" s="120">
+      <c r="F36" s="115">
         <v>-10</v>
       </c>
-      <c r="G36" s="121"/>
-      <c r="H36" s="122">
-        <f>F36*G36</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="120" t="s">
+      <c r="G36" s="116"/>
+      <c r="H36" s="117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="122">
-        <f>J36*L36</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="123" t="e">
-        <f>(J36-K36)/K36</f>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="118" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O36" s="122">
+      <c r="O36" s="117">
         <v>380.91</v>
       </c>
-      <c r="P36" s="123">
-        <f>M36/$M$59</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="124"/>
-      <c r="S36" s="125"/>
+      <c r="P36" s="118">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="119"/>
+      <c r="S36" s="120"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
-      <c r="B37" s="104">
+      <c r="B37" s="11">
         <v>35</v>
       </c>
       <c r="C37" s="52">
         <v>44544</v>
       </c>
-      <c r="D37" s="54">
+      <c r="D37" s="53">
         <v>113036</v>
       </c>
-      <c r="E37" s="54" t="s">
+      <c r="E37" s="53" t="s">
         <v>39</v>
       </c>
       <c r="F37" s="25">
@@ -5791,21 +5639,21 @@
         <v>107.89</v>
       </c>
       <c r="H37" s="24">
-        <f>F37*G37</f>
+        <f t="shared" si="6"/>
         <v>1078.9000000000001</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="21"/>
       <c r="M37" s="20">
-        <f>J37*L37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N37" s="44" t="e">
-        <f>(J37-K37)/K37</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O37" s="20">
@@ -5813,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="44">
-        <f>M37/$M$59</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q37" s="14"/>
@@ -5821,16 +5669,16 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
-      <c r="B38" s="104">
+      <c r="B38" s="11">
         <v>36</v>
       </c>
       <c r="C38" s="52">
         <v>44550</v>
       </c>
-      <c r="D38" s="54">
+      <c r="D38" s="53">
         <v>128062</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="53" t="s">
         <v>85</v>
       </c>
       <c r="F38" s="25">
@@ -5840,21 +5688,21 @@
         <v>94.59</v>
       </c>
       <c r="H38" s="24">
-        <f>F38*G38</f>
+        <f t="shared" si="6"/>
         <v>945.90000000000009</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
       <c r="L38" s="21"/>
       <c r="M38" s="20">
-        <f>J38*L38</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N38" s="44" t="e">
-        <f>(J38-K38)/K38</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="20">
@@ -5862,62 +5710,62 @@
         <v>0</v>
       </c>
       <c r="P38" s="44">
-        <f>M38/$M$59</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q38" s="14"/>
       <c r="S38" s="45"/>
     </row>
-    <row r="39" spans="1:19" s="93" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="146">
+    <row r="39" spans="1:19" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="123">
         <v>37</v>
       </c>
-      <c r="C39" s="94">
+      <c r="C39" s="92">
         <v>44557</v>
       </c>
-      <c r="D39" s="95">
+      <c r="D39" s="93">
         <v>127007</v>
       </c>
-      <c r="E39" s="95" t="s">
+      <c r="E39" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="96">
+      <c r="F39" s="94">
         <v>10</v>
       </c>
-      <c r="G39" s="97">
+      <c r="G39" s="95">
         <v>149.65100000000001</v>
       </c>
-      <c r="H39" s="98">
-        <f>F39*G39</f>
+      <c r="H39" s="96">
+        <f t="shared" si="6"/>
         <v>1496.5100000000002</v>
       </c>
-      <c r="I39" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="98">
-        <f>J39*L39</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="99" t="e">
-        <f>(J39-K39)/K39</f>
+      <c r="I39" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="97" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O39" s="98">
+      <c r="O39" s="96">
         <v>471</v>
       </c>
-      <c r="P39" s="99">
-        <f>M39/$M$59</f>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="100"/>
-      <c r="S39" s="101"/>
+      <c r="P39" s="97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="98"/>
+      <c r="S39" s="99"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
-      <c r="B40" s="115">
+      <c r="B40" s="11">
         <v>38</v>
       </c>
       <c r="C40" s="52">
@@ -5926,8 +5774,8 @@
       <c r="D40" s="13">
         <v>128100</v>
       </c>
-      <c r="E40" s="103" t="s">
-        <v>107</v>
+      <c r="E40" s="101" t="s">
+        <v>105</v>
       </c>
       <c r="F40" s="25">
         <v>10</v>
@@ -5936,21 +5784,21 @@
         <v>109.17</v>
       </c>
       <c r="H40" s="24">
-        <f t="shared" ref="H25:H41" si="0">F40*G40</f>
+        <f t="shared" ref="H40:H41" si="7">F40*G40</f>
         <v>1091.7</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
       <c r="M40" s="20">
-        <f t="shared" ref="M3:M41" si="1">J40*L40</f>
+        <f t="shared" ref="M40:M41" si="8">J40*L40</f>
         <v>0</v>
       </c>
       <c r="N40" s="44" t="e">
-        <f t="shared" ref="N40:N46" si="2">(J40-K40)/K40</f>
+        <f t="shared" ref="N40:N46" si="9">(J40-K40)/K40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O40" s="20">
@@ -5958,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="44">
-        <f t="shared" ref="P3:P41" si="3">M40/$M$59</f>
+        <f t="shared" ref="P40:P41" si="10">M40/$M$59</f>
         <v>0</v>
       </c>
       <c r="Q40" s="14"/>
@@ -5966,17 +5814,17 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
-      <c r="B41" s="115">
+      <c r="B41" s="11">
         <v>39</v>
       </c>
       <c r="C41" s="52">
         <v>44561</v>
       </c>
-      <c r="D41" s="54">
+      <c r="D41" s="53">
         <v>110080</v>
       </c>
-      <c r="E41" s="54" t="s">
-        <v>108</v>
+      <c r="E41" s="53" t="s">
+        <v>106</v>
       </c>
       <c r="F41" s="25">
         <v>10</v>
@@ -5985,11 +5833,11 @@
         <v>112.01</v>
       </c>
       <c r="H41" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1120.1000000000001</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J41" s="21">
         <v>112.05</v>
@@ -6001,11 +5849,11 @@
         <v>10</v>
       </c>
       <c r="M41" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1120.5</v>
       </c>
       <c r="N41" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.7852360974735359E-4</v>
       </c>
       <c r="O41" s="20">
@@ -6013,7 +5861,7 @@
         <v>0.19999999999996021</v>
       </c>
       <c r="P41" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.270020521895859E-2</v>
       </c>
       <c r="Q41" s="14"/>
@@ -6021,14 +5869,14 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
-      <c r="B42" s="127">
+      <c r="B42" s="11">
         <v>40</v>
       </c>
       <c r="C42" s="52"/>
-      <c r="D42" s="54">
+      <c r="D42" s="53">
         <v>113596</v>
       </c>
-      <c r="E42" s="54" t="s">
+      <c r="E42" s="53" t="s">
         <v>63</v>
       </c>
       <c r="F42" s="25"/>
@@ -6040,11 +5888,11 @@
       <c r="L42" s="21"/>
       <c r="M42" s="20"/>
       <c r="N42" s="44" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O42" s="20">
-        <f t="shared" ref="O42:O45" si="4">(J42-K42)*L42</f>
+        <f t="shared" ref="O42:O45" si="11">(J42-K42)*L42</f>
         <v>0</v>
       </c>
       <c r="P42" s="44"/>
@@ -6053,14 +5901,14 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
-      <c r="B43" s="127">
+      <c r="B43" s="11">
         <v>41</v>
       </c>
       <c r="C43" s="52"/>
-      <c r="D43" s="54">
+      <c r="D43" s="53">
         <v>113596</v>
       </c>
-      <c r="E43" s="54" t="s">
+      <c r="E43" s="53" t="s">
         <v>63</v>
       </c>
       <c r="F43" s="25"/>
@@ -6072,11 +5920,11 @@
       <c r="L43" s="21"/>
       <c r="M43" s="20"/>
       <c r="N43" s="44" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O43" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P43" s="44"/>
@@ -6085,9 +5933,9 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
-      <c r="B44" s="104"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="13"/>
-      <c r="D44" s="54"/>
+      <c r="D44" s="53"/>
       <c r="E44" s="52"/>
       <c r="F44" s="25"/>
       <c r="G44" s="37"/>
@@ -6098,11 +5946,11 @@
       <c r="L44" s="21"/>
       <c r="M44" s="20"/>
       <c r="N44" s="44" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O44" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P44" s="44"/>
@@ -6111,12 +5959,12 @@
     </row>
     <row r="45" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="104"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="13">
         <v>128138</v>
       </c>
-      <c r="D45" s="128" t="s">
-        <v>105</v>
+      <c r="D45" s="122" t="s">
+        <v>103</v>
       </c>
       <c r="E45" s="52"/>
       <c r="F45" s="25"/>
@@ -6128,11 +5976,11 @@
       <c r="L45" s="21"/>
       <c r="M45" s="20"/>
       <c r="N45" s="44" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O45" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P45" s="44"/>
@@ -6141,18 +5989,18 @@
     </row>
     <row r="46" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="60">
+      <c r="B46" s="11"/>
+      <c r="C46" s="58">
         <v>110059</v>
       </c>
-      <c r="D46" s="61" t="s">
+      <c r="D46" s="59" t="s">
         <v>97</v>
       </c>
       <c r="E46" s="52"/>
       <c r="F46" s="25"/>
       <c r="G46" s="37"/>
       <c r="H46" s="24">
-        <f t="shared" ref="H46:H48" si="5">F46*G46</f>
+        <f t="shared" ref="H46:H48" si="12">F46*G46</f>
         <v>0</v>
       </c>
       <c r="I46" s="25"/>
@@ -6160,19 +6008,19 @@
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
       <c r="M46" s="20">
-        <f t="shared" ref="M46:M48" si="6">J46*L46</f>
+        <f t="shared" ref="M46:M48" si="13">J46*L46</f>
         <v>0</v>
       </c>
       <c r="N46" s="44" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O46" s="20">
-        <f t="shared" ref="O46:O49" si="7">(J46-K46)*L46</f>
+        <f t="shared" ref="O46:O49" si="14">(J46-K46)*L46</f>
         <v>0</v>
       </c>
       <c r="P46" s="44">
-        <f t="shared" ref="P46:P49" si="8">M46/$M$59</f>
+        <f t="shared" ref="P46:P49" si="15">M46/$M$59</f>
         <v>0</v>
       </c>
       <c r="Q46" s="14"/>
@@ -6180,18 +6028,18 @@
     </row>
     <row r="47" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="60">
+      <c r="B47" s="11"/>
+      <c r="C47" s="58">
         <v>113042</v>
       </c>
-      <c r="D47" s="61" t="s">
+      <c r="D47" s="59" t="s">
         <v>94</v>
       </c>
       <c r="E47" s="52"/>
       <c r="F47" s="25"/>
       <c r="G47" s="37"/>
       <c r="H47" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I47" s="25"/>
@@ -6199,19 +6047,19 @@
       <c r="K47" s="21"/>
       <c r="L47" s="21"/>
       <c r="M47" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N47" s="44" t="e">
-        <f t="shared" ref="N46:N58" si="9">(J47-K47)/K47</f>
+        <f t="shared" ref="N47:N58" si="16">(J47-K47)/K47</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O47" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P47" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q47" s="14"/>
@@ -6219,16 +6067,16 @@
     </row>
     <row r="48" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
-      <c r="B48" s="59"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="54"/>
+      <c r="D48" s="53"/>
       <c r="E48" s="52"/>
       <c r="F48" s="25"/>
       <c r="G48" s="37"/>
       <c r="H48" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I48" s="25"/>
@@ -6236,19 +6084,19 @@
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
       <c r="M48" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N48" s="44" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O48" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P48" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q48" s="14"/>
@@ -6256,11 +6104,11 @@
     </row>
     <row r="49" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="60">
+      <c r="B49" s="11"/>
+      <c r="C49" s="58">
         <v>123076</v>
       </c>
-      <c r="D49" s="61" t="s">
+      <c r="D49" s="59" t="s">
         <v>88</v>
       </c>
       <c r="E49" s="52"/>
@@ -6273,15 +6121,15 @@
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
       <c r="N49" s="44" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O49" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P49" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q49" s="14"/>
@@ -6289,11 +6137,11 @@
     </row>
     <row r="50" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="60">
+      <c r="B50" s="11"/>
+      <c r="C50" s="58">
         <v>113033</v>
       </c>
-      <c r="D50" s="61" t="s">
+      <c r="D50" s="59" t="s">
         <v>90</v>
       </c>
       <c r="E50" s="52"/>
@@ -6308,7 +6156,7 @@
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
       <c r="N50" s="44" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O50" s="20"/>
@@ -6318,11 +6166,11 @@
     </row>
     <row r="51" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="60">
+      <c r="B51" s="11"/>
+      <c r="C51" s="58">
         <v>127034</v>
       </c>
-      <c r="D51" s="61" t="s">
+      <c r="D51" s="59" t="s">
         <v>98</v>
       </c>
       <c r="E51" s="52"/>
@@ -6335,7 +6183,7 @@
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
       <c r="N51" s="44" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O51" s="20"/>
@@ -6345,11 +6193,11 @@
     </row>
     <row r="52" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="60">
+      <c r="B52" s="11"/>
+      <c r="C52" s="58">
         <v>110068</v>
       </c>
-      <c r="D52" s="61" t="s">
+      <c r="D52" s="59" t="s">
         <v>91</v>
       </c>
       <c r="E52" s="52"/>
@@ -6362,7 +6210,7 @@
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
       <c r="N52" s="44" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O52" s="20">
@@ -6378,11 +6226,11 @@
     </row>
     <row r="53" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="60">
+      <c r="B53" s="11"/>
+      <c r="C53" s="58">
         <v>128015</v>
       </c>
-      <c r="D53" s="61" t="s">
+      <c r="D53" s="59" t="s">
         <v>92</v>
       </c>
       <c r="E53" s="52"/>
@@ -6395,7 +6243,7 @@
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
       <c r="N53" s="44" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O53" s="20">
@@ -6412,10 +6260,10 @@
     <row r="54" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="60">
+      <c r="C54" s="58">
         <v>113604</v>
       </c>
-      <c r="D54" s="61" t="s">
+      <c r="D54" s="59" t="s">
         <v>93</v>
       </c>
       <c r="E54" s="52"/>
@@ -6428,7 +6276,7 @@
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
       <c r="N54" s="44" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O54" s="21"/>
@@ -6448,8 +6296,8 @@
       <c r="D55" s="13">
         <v>128138</v>
       </c>
-      <c r="E55" s="128" t="s">
-        <v>105</v>
+      <c r="E55" s="122" t="s">
+        <v>103</v>
       </c>
       <c r="F55" s="25"/>
       <c r="G55" s="37"/>
@@ -6460,7 +6308,7 @@
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
       <c r="N55" s="44" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O55" s="21"/>
@@ -6472,10 +6320,10 @@
       <c r="A56" s="7"/>
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
-      <c r="D56" s="54">
+      <c r="D56" s="53">
         <v>113596</v>
       </c>
-      <c r="E56" s="54" t="s">
+      <c r="E56" s="53" t="s">
         <v>63</v>
       </c>
       <c r="F56" s="25"/>
@@ -6487,7 +6335,7 @@
       <c r="L56" s="21"/>
       <c r="M56" s="21"/>
       <c r="N56" s="44" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O56" s="21"/>
@@ -6498,8 +6346,8 @@
     <row r="57" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="12"/>
       <c r="C57" s="13"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="58" t="s">
+      <c r="D57" s="54"/>
+      <c r="E57" s="57" t="s">
         <v>75</v>
       </c>
       <c r="F57" s="25"/>
@@ -6511,7 +6359,7 @@
       <c r="L57" s="21"/>
       <c r="M57" s="21"/>
       <c r="N57" s="44" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O57" s="21"/>
@@ -6522,8 +6370,8 @@
     <row r="58" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
       <c r="C58" s="13"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56">
+      <c r="D58" s="55"/>
+      <c r="E58" s="55">
         <v>101.23</v>
       </c>
       <c r="F58" s="25"/>
@@ -6535,7 +6383,7 @@
       <c r="L58" s="46"/>
       <c r="M58" s="21"/>
       <c r="N58" s="44" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O58" s="21"/>
@@ -6548,8 +6396,8 @@
       <c r="C59" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
       <c r="F59" s="26"/>
       <c r="G59" s="38"/>
       <c r="H59" s="26">
@@ -6558,11 +6406,11 @@
       </c>
       <c r="I59" s="26"/>
       <c r="J59" s="22"/>
-      <c r="K59" s="109">
+      <c r="K59" s="106">
         <f>SUMPRODUCT((K3:K57)*(L3:L57))</f>
         <v>30699.710000000003</v>
       </c>
-      <c r="L59" s="110"/>
+      <c r="L59" s="107"/>
       <c r="M59" s="41">
         <f>SUM(M3:M58)</f>
         <v>34265.839999999997</v>
@@ -6587,25 +6435,21 @@
     <row r="63" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C64" s="47"/>
-      <c r="D64" s="60">
+      <c r="D64" s="58">
         <v>127021</v>
       </c>
-      <c r="E64" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="F64" s="61">
+      <c r="E64" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" s="59">
         <v>107.998</v>
       </c>
     </row>
-    <row r="67" spans="4:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="D67" s="113" t="s">
-        <v>102</v>
-      </c>
+    <row r="67" spans="4:4" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="D67" s="49"/>
     </row>
     <row r="78" spans="4:4" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="D78" s="49" t="s">
-        <v>100</v>
-      </c>
+      <c r="D78" s="49"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:Q39">
@@ -6623,7 +6467,7 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="N48:N59 O48:O53 N3:O47">
+  <conditionalFormatting sqref="N3:O47 O48:O53 N48:N59">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6754,7 +6598,6 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7110,17 +6953,17 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="Control 1">
+        <control shapeId="3084" r:id="rId4" name="Control 12">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
@@ -7130,13 +6973,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="Control 1"/>
+        <control shapeId="3084" r:id="rId4" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId7">
+        <control shapeId="3083" r:id="rId6" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -7145,22 +6988,47 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3074" r:id="rId6" name="Control 2"/>
+        <control shapeId="3083" r:id="rId6" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId8" name="Control 3">
+        <control shapeId="3082" r:id="rId7" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3082" r:id="rId7" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3081" r:id="rId8" name="Control 9">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -7180,12 +7048,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3075" r:id="rId8" name="Control 3"/>
+        <control shapeId="3081" r:id="rId8" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId10" name="Control 4">
+        <control shapeId="3080" r:id="rId10" name="Control 8">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -7205,12 +7073,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3076" r:id="rId10" name="Control 4"/>
+        <control shapeId="3080" r:id="rId10" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId11" name="Control 5">
+        <control shapeId="3079" r:id="rId11" name="Control 7">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -7230,7 +7098,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3077" r:id="rId11" name="Control 5"/>
+        <control shapeId="3079" r:id="rId11" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -7260,7 +7128,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3079" r:id="rId13" name="Control 7">
+        <control shapeId="3077" r:id="rId13" name="Control 5">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -7280,12 +7148,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3079" r:id="rId13" name="Control 7"/>
+        <control shapeId="3077" r:id="rId13" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3080" r:id="rId14" name="Control 8">
+        <control shapeId="3076" r:id="rId14" name="Control 4">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -7305,12 +7173,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3080" r:id="rId14" name="Control 8"/>
+        <control shapeId="3076" r:id="rId14" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3081" r:id="rId15" name="Control 9">
+        <control shapeId="3075" r:id="rId15" name="Control 3">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -7330,13 +7198,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3081" r:id="rId15" name="Control 9"/>
+        <control shapeId="3075" r:id="rId15" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3082" r:id="rId16" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="3074" r:id="rId16" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -7345,7 +7213,32 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId16" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId18" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
@@ -7355,57 +7248,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3082" r:id="rId16" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3083" r:id="rId17" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3083" r:id="rId17" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3084" r:id="rId18" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3084" r:id="rId18" name="Control 12"/>
+        <control shapeId="3073" r:id="rId18" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -7441,8 +7284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807342F9-B972-4A31-8879-5702E054BDAA}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7456,14 +7299,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144" t="s">
+      <c r="B1" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="138"/>
+      <c r="D1" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="145"/>
+      <c r="E1" s="140"/>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
